--- a/jacobi/src/test/resources/jacobi/test/data/ShiftedQRTest.xlsx
+++ b/jacobi/src/test/resources/jacobi/test/data/ShiftedQRTest.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="1"/>
+    <workbookView xWindow="3615" yWindow="120" windowWidth="27795" windowHeight="12585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Shift last element 4x4" sheetId="1" r:id="rId1"/>
     <sheet name="Shift first element 4x4 in 6x6" sheetId="2" r:id="rId2"/>
-    <sheet name="rand" sheetId="3" r:id="rId3"/>
+    <sheet name="Bad shift in 5x5" sheetId="4" r:id="rId3"/>
+    <sheet name="rand" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>#0</t>
   </si>
@@ -540,7 +541,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" ref="A19:D19" si="3">A6</f>
+        <f t="shared" ref="A19:C19" si="3">A6</f>
         <v>0</v>
       </c>
       <c r="B19">
@@ -565,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,10 +900,123 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.2285522548069001</v>
+      </c>
+      <c r="B3">
+        <v>1.7854591419189356</v>
+      </c>
+      <c r="C3">
+        <v>-1.590043912972489</v>
+      </c>
+      <c r="D3">
+        <v>1.9187068674507177</v>
+      </c>
+      <c r="E3">
+        <v>4.8680536107097909</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5.2338094472338819</v>
+      </c>
+      <c r="B4">
+        <v>7.706334116813828</v>
+      </c>
+      <c r="C4">
+        <v>2.3609968286145273</v>
+      </c>
+      <c r="D4">
+        <v>5.2473526616623332</v>
+      </c>
+      <c r="E4">
+        <v>1.1828012589943002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>6.0248840010014622</v>
+      </c>
+      <c r="C5">
+        <v>-0.83713903872960893</v>
+      </c>
+      <c r="D5">
+        <v>-0.19230106115499179</v>
+      </c>
+      <c r="E5">
+        <v>3.1649007655181602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>-0.35725341501251773</v>
+      </c>
+      <c r="D6">
+        <v>6.6975572044570484</v>
+      </c>
+      <c r="E6">
+        <v>3.5319183946376436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1.9328719852590552</v>
+      </c>
+      <c r="E7">
+        <v>4.4089649413761034</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:H10"/>
+      <selection activeCell="B4" sqref="B4:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,409 +1024,409 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <f ca="1">RAND()*10-2</f>
-        <v>2.4592730888020116</v>
+        <v>6.0527906428787688</v>
       </c>
       <c r="B1">
         <f t="shared" ref="B1:H12" ca="1" si="0">RAND()*10-2</f>
-        <v>5.7118055531619145</v>
+        <v>7.1832957132809376</v>
       </c>
       <c r="C1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61170039722190683</v>
+        <v>3.1093045064714495</v>
       </c>
       <c r="D1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6155200743333902</v>
+        <v>2.6290506329639367</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>3.3226071166409472</v>
+        <v>1.0134391543563344</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2331323672541448</v>
+        <v>6.0425236800313797</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>7.8692712187046858</v>
+        <v>7.3888999613993622</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1027902027178396</v>
+        <v>1.4426264045070951</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <f t="shared" ref="A2:A12" ca="1" si="1">RAND()*10-2</f>
-        <v>1.4049148777157745</v>
+        <v>5.0949239216294604</v>
       </c>
       <c r="B2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0904818871092807</v>
+        <v>3.3805517348173906</v>
       </c>
       <c r="C2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2122748042055058</v>
+        <v>7.0885662866706536</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4257794663584695</v>
+        <v>4.1939226997637489</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8867589951953043</v>
+        <v>-0.95838274722398853</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5326996919369318</v>
+        <v>-1.1920610222484744</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>6.3803983192182834E-2</v>
+        <v>4.8830875168910222</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>-6.873873764516869E-4</v>
+        <v>3.1378274630043217</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5791791480641244</v>
+        <v>4.9531328071793785</v>
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9353463201115213</v>
+        <v>-1.6070630758389763</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15808135108175847</v>
+        <v>0.85136918358366831</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5738015333805677</v>
+        <v>7.2676533176291471</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7014318795061438</v>
+        <v>4.8467060741985586</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9965325815102632</v>
+        <v>7.1699029849063045</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4249084014861495</v>
+        <v>2.2735131322983433</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6106110377614353</v>
+        <v>0.92735876224001856</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30341872792492408</v>
+        <v>7.8393254351020616</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1528797893317897</v>
+        <v>6.7507990359956196</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.8002672002045998</v>
+        <v>2.7245495504340429</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4761111460479048</v>
+        <v>2.0799395378705761</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.12580309818348168</v>
+        <v>6.223220640255402</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.67089847434054928</v>
+        <v>6.8812571666856659</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4436243046931088</v>
+        <v>6.9429368460932537</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2592245664370942</v>
+        <v>5.8545428894002187</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5927080515203915</v>
+        <v>0.97402007699472026</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1661691229036979</v>
+        <v>1.1093770643480703</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0720270967849155</v>
+        <v>2.3943579771773225</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.81995442127059937</v>
+        <v>-1.7157009037982223</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>7.9280377365685748</v>
+        <v>-1.6679233144271848</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.7400046696868579</v>
+        <v>0.51011396634114625</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7443171842772749</v>
+        <v>4.160628749013993</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.3527002128743566</v>
+        <v>-1.6629545328261701</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9924360926610163</v>
+        <v>1.6415544565203692</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.979957072633491</v>
+        <v>0.13092547752151695</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.96277057606870375</v>
+        <v>1.3492586411454783</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.4958596739695356</v>
+        <v>7.7840337166180227</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2936730443695481</v>
+        <v>1.5151694664178832</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6012904498349503</v>
+        <v>7.7814035026911892</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.897214258575735</v>
+        <v>5.563334030618857</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0590846291598881</v>
+        <v>7.3806270328233268</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>3.394233230541281</v>
+        <v>2.5784754738049269</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>8.5655692066883393E-2</v>
+        <v>1.7433588966045681</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.59112907504887557</v>
+        <v>3.2517847175671033</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0455130347782715</v>
+        <v>6.9323839340894793</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6302558472498898</v>
+        <v>3.0253324137667699</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5391975806088496</v>
+        <v>7.3519045236435172</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>7.4777017496911569</v>
+        <v>4.1806776475783938</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.5464988543254758</v>
+        <v>5.5737715126703931</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4017608216252242E-2</v>
+        <v>7.5581846977755038</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1224828397901048</v>
+        <v>1.8757990886861862</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5904780144816861</v>
+        <v>0.50551773535328648</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.2053032185684247</v>
+        <v>6.5613140567653687</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.90752339808591254</v>
+        <v>-9.9288638883600511E-2</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6822083792210902</v>
+        <v>4.0032020577744918</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2580699946510396</v>
+        <v>-0.27261091548965655</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7217440487677482</v>
+        <v>2.4823974419266852</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1861612339917933</v>
+        <v>3.7178490808021252</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.7910526419493995</v>
+        <v>4.3148406086870281</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5091836366081743</v>
+        <v>7.4247737093580781</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5838323625647206</v>
+        <v>1.2331350445705223</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.98286048879268995</v>
+        <v>-0.71359840895136517</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.362634430491827E-2</v>
+        <v>3.398607697167269</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1893595879213192</v>
+        <v>3.6472899973160278</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.35743403338406243</v>
+        <v>7.440011044574403</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>7.7936303133383635</v>
+        <v>-1.9118017780118384</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26264802746356963</v>
+        <v>3.2510571535520434</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>4.5115268502621628</v>
+        <v>0.68167757148640717</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4001687305921213</v>
+        <v>0.98039273456515152</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8448668879160435</v>
+        <v>4.4923413022327807</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>7.776049110314478</v>
+        <v>3.2733834679228497</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57905627273483962</v>
+        <v>5.6150230235991483</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.0697410903324938</v>
+        <v>3.5097320108202315</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>6.1858196219827715</v>
+        <v>0.41100452554662059</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50016452263920996</v>
+        <v>0.82228448710024082</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26780635482168336</v>
+        <v>4.6895939422854305</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7388546999517009</v>
+        <v>7.4100690892936978</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1004149526611817</v>
+        <v>0.51547678733021218</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>7.7175720941956634</v>
+        <v>0.71312672603305582</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9611552895506605</v>
+        <v>1.4406105608268023</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0172415950908356</v>
+        <v>7.878134454075937</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4119318240253502</v>
+        <v>3.3483305500126654</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.1055736909394209</v>
+        <v>2.1962030989103098E-2</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.178431389337641</v>
+        <v>7.8348896077247989</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.68385930409479423</v>
+        <v>3.2561909589316134</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4948156338526521</v>
+        <v>-0.64076909552490613</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.2420260549182736</v>
+        <v>-0.62097214866340389</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5182107877597222</v>
+        <v>7.3139675601863576</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6287112874601739</v>
+        <v>5.9508492351449078</v>
       </c>
     </row>
   </sheetData>
